--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl4-Ackr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl4-Ackr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.648873</v>
+        <v>0.2400906666666667</v>
       </c>
       <c r="H2">
-        <v>1.946619</v>
+        <v>0.720272</v>
       </c>
       <c r="I2">
-        <v>0.00512780945587442</v>
+        <v>0.001631540293869566</v>
       </c>
       <c r="J2">
-        <v>0.00512780945587442</v>
+        <v>0.001631540293869566</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -570,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.040486430835</v>
+        <v>0.01498045714666667</v>
       </c>
       <c r="R2">
-        <v>0.364377877515</v>
+        <v>0.13482411432</v>
       </c>
       <c r="S2">
-        <v>0.00512780945587442</v>
+        <v>0.001631540293869566</v>
       </c>
       <c r="T2">
-        <v>0.00512780945587442</v>
+        <v>0.001631540293869566</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +584,13 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>55.419388</v>
+        <v>91.82408133333333</v>
       </c>
       <c r="H3">
-        <v>166.258164</v>
+        <v>275.472244</v>
       </c>
       <c r="I3">
-        <v>0.4379594494225732</v>
+        <v>0.623992138981758</v>
       </c>
       <c r="J3">
-        <v>0.4379594494225732</v>
+        <v>0.623992138981758</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -632,16 +629,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>3.45789271426</v>
+        <v>5.729363554793332</v>
       </c>
       <c r="R3">
-        <v>31.12103442834</v>
+        <v>51.56427199314</v>
       </c>
       <c r="S3">
-        <v>0.4379594494225732</v>
+        <v>0.623992138981758</v>
       </c>
       <c r="T3">
-        <v>0.4379594494225732</v>
+        <v>0.623992138981758</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +646,31 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.03596933333333333</v>
+        <v>55.09165833333333</v>
       </c>
       <c r="H4">
-        <v>0.107908</v>
+        <v>165.274975</v>
       </c>
       <c r="I4">
-        <v>0.0002842526774702687</v>
+        <v>0.3743763207243725</v>
       </c>
       <c r="J4">
-        <v>0.0002842526774702686</v>
+        <v>0.3743763207243724</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -694,78 +691,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.002244306553333333</v>
+        <v>3.437444021708334</v>
       </c>
       <c r="R4">
-        <v>0.02019875898</v>
+        <v>30.936996195375</v>
       </c>
       <c r="S4">
-        <v>0.0002842526774702687</v>
+        <v>0.3743763207243725</v>
       </c>
       <c r="T4">
-        <v>0.0002842526774702686</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>70.435768</v>
-      </c>
-      <c r="H5">
-        <v>211.307304</v>
-      </c>
-      <c r="I5">
-        <v>0.5566284884440821</v>
-      </c>
-      <c r="J5">
-        <v>0.5566284884440821</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.062395</v>
-      </c>
-      <c r="N5">
-        <v>0.187185</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>4.39483974436</v>
-      </c>
-      <c r="R5">
-        <v>39.55355769924</v>
-      </c>
-      <c r="S5">
-        <v>0.5566284884440821</v>
-      </c>
-      <c r="T5">
-        <v>0.5566284884440821</v>
+        <v>0.3743763207243724</v>
       </c>
     </row>
   </sheetData>
